--- a/wikipedia_validation_sheets/Anthrax DISNET VALIDATION.xlsx
+++ b/wikipedia_validation_sheets/Anthrax DISNET VALIDATION.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10319"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gerardo/Documents/1.Doctorado/3_SEMESTRE/PAPER/estructura_disnet/paperLinks/GITLAB/wikipedia_validation_sheets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gerardo/Documents/1.Doctorado/3_SEMESTRE/PAPER/estructura_disnet/paperLinks/paperdisnet/wikipedia_validation_sheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{64CB8150-1938-044C-A6EE-5698586BF859}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F0F79AB-18DD-0146-ABE5-8F2D441E7CD6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="16000" xr2:uid="{CF915BD0-0557-40D8-9E86-96D7E49BAF2C}"/>
+    <workbookView xWindow="38400" yWindow="460" windowWidth="25600" windowHeight="21140" xr2:uid="{CF915BD0-0557-40D8-9E86-96D7E49BAF2C}"/>
   </bookViews>
   <sheets>
     <sheet name="VALIDATION" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">VALIDATION!$A$4:$I$4</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="176">
   <si>
     <t>WIKIPEDIA TERMS</t>
   </si>
@@ -456,24 +456,15 @@
     <t>Able</t>
   </si>
   <si>
-    <t xml:space="preserve">black eschar </t>
-  </si>
-  <si>
     <t>necrotic ulcer</t>
   </si>
   <si>
     <t>shortness of breath</t>
   </si>
   <si>
-    <t>SHOCK</t>
-  </si>
-  <si>
     <t>acute inflammation of the intestinal tract</t>
   </si>
   <si>
-    <t>LOSS OS APPETITE</t>
-  </si>
-  <si>
     <t>vomiting of blood</t>
   </si>
   <si>
@@ -489,13 +480,82 @@
     <t xml:space="preserve"> Ascoli test</t>
   </si>
   <si>
-    <t>ymph nodes may become infected, reddened, swollen, and painful.</t>
-  </si>
-  <si>
     <t>Color-enhanced scanning electron micrograph</t>
   </si>
   <si>
     <t>Anthrax</t>
+  </si>
+  <si>
+    <t>eschar</t>
+  </si>
+  <si>
+    <t>Eschar</t>
+  </si>
+  <si>
+    <t>[patf]</t>
+  </si>
+  <si>
+    <t>vegetation, vegetations</t>
+  </si>
+  <si>
+    <t>Vegetation</t>
+  </si>
+  <si>
+    <t>[anab]</t>
+  </si>
+  <si>
+    <t>scab</t>
+  </si>
+  <si>
+    <t>Scab</t>
+  </si>
+  <si>
+    <t>[acab]</t>
+  </si>
+  <si>
+    <t>bleeding</t>
+  </si>
+  <si>
+    <t>Hemorrhage</t>
+  </si>
+  <si>
+    <t>shock</t>
+  </si>
+  <si>
+    <t>Shock</t>
+  </si>
+  <si>
+    <t>infections</t>
+  </si>
+  <si>
+    <t>Infection</t>
+  </si>
+  <si>
+    <t>blister</t>
+  </si>
+  <si>
+    <t>Bulla</t>
+  </si>
+  <si>
+    <t>projections</t>
+  </si>
+  <si>
+    <t>Projection</t>
+  </si>
+  <si>
+    <t>[menp]</t>
+  </si>
+  <si>
+    <t>contracted</t>
+  </si>
+  <si>
+    <t>Contraction (finding)</t>
+  </si>
+  <si>
+    <t>lymph nodes may become infected, reddened, swollen, and painful.</t>
+  </si>
+  <si>
+    <t>LOSS OF APPETITE</t>
   </si>
 </sst>
 </file>
@@ -876,7 +936,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
@@ -939,16 +999,10 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -957,19 +1011,16 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1337,10 +1388,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF501930-A237-4EA3-A3D6-166E67897307}">
-  <dimension ref="A1:I78"/>
+  <dimension ref="A1:I96"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="B81" sqref="B81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1354,43 +1405,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="32" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="49" t="s">
-        <v>155</v>
-      </c>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
+      <c r="B1" s="42" t="s">
+        <v>151</v>
+      </c>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="51" t="s">
+      <c r="C2" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="52"/>
-      <c r="E2" s="55" t="s">
+      <c r="D2" s="45"/>
+      <c r="E2" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="57" t="s">
+      <c r="F2" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="59"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="52"/>
     </row>
     <row r="3" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="53"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="61"/>
-      <c r="H3" s="61"/>
-      <c r="I3" s="62"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="54"/>
+      <c r="H3" s="54"/>
+      <c r="I3" s="55"/>
     </row>
     <row r="4" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
@@ -1434,10 +1485,10 @@
       <c r="E5" s="11" t="b">
         <v>1</v>
       </c>
-      <c r="F5" s="40" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="41" t="s">
+      <c r="F5" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="35" t="s">
         <v>12</v>
       </c>
       <c r="H5" s="18" t="s">
@@ -1502,7 +1553,7 @@
         <v>12</v>
       </c>
       <c r="I7" s="19" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -1560,7 +1611,7 @@
         <v>12</v>
       </c>
       <c r="I9" s="19" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -1589,7 +1640,7 @@
         <v>12</v>
       </c>
       <c r="I10" s="19" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -1676,7 +1727,7 @@
         <v>12</v>
       </c>
       <c r="I13" s="19" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -1734,7 +1785,7 @@
         <v>12</v>
       </c>
       <c r="I15" s="19" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
@@ -1995,7 +2046,7 @@
         <v>12</v>
       </c>
       <c r="I24" s="19" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
@@ -2024,7 +2075,7 @@
         <v>12</v>
       </c>
       <c r="I25" s="19" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
@@ -2053,7 +2104,7 @@
         <v>12</v>
       </c>
       <c r="I26" s="19" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
@@ -3158,73 +3209,91 @@
         <v>12</v>
       </c>
     </row>
-    <row r="65" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>61</v>
       </c>
-      <c r="B65" s="38" t="s">
+      <c r="B65" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="C65" s="42" t="s">
+      <c r="C65" s="21" t="s">
         <v>141</v>
       </c>
-      <c r="D65" s="42" t="s">
+      <c r="D65" s="21" t="s">
         <v>17</v>
       </c>
       <c r="E65" s="22" t="b">
         <v>0</v>
       </c>
-      <c r="F65" s="43" t="s">
-        <v>12</v>
-      </c>
-      <c r="G65" s="44" t="s">
+      <c r="F65" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="G65" s="17" t="s">
         <v>12</v>
       </c>
       <c r="H65" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="I65" s="39" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I65" s="24" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>62</v>
       </c>
-      <c r="B66" s="45"/>
-      <c r="C66" s="46"/>
-      <c r="D66" s="46"/>
-      <c r="E66" s="46"/>
-      <c r="F66" s="47" t="s">
-        <v>12</v>
-      </c>
-      <c r="G66" s="47" t="s">
-        <v>12</v>
-      </c>
-      <c r="H66" s="47"/>
-      <c r="I66" s="48"/>
+      <c r="B66" s="23" t="s">
+        <v>152</v>
+      </c>
+      <c r="C66" s="21" t="s">
+        <v>153</v>
+      </c>
+      <c r="D66" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="E66" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="F66" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="G66" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="H66" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="I66" s="24" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>63</v>
       </c>
-      <c r="B67" s="36" t="s">
-        <v>142</v>
-      </c>
-      <c r="C67" s="28"/>
-      <c r="D67" s="28"/>
-      <c r="E67" s="28"/>
-      <c r="F67" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="G67" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="H67" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="I67" s="37" t="s">
-        <v>29</v>
+      <c r="B67" s="23" t="s">
+        <v>155</v>
+      </c>
+      <c r="C67" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="D67" s="21" t="s">
+        <v>157</v>
+      </c>
+      <c r="E67" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="F67" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="G67" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="H67" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="I67" s="24" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.2">
@@ -3232,22 +3301,28 @@
         <v>64</v>
       </c>
       <c r="B68" s="23" t="s">
-        <v>143</v>
-      </c>
-      <c r="C68" s="32"/>
-      <c r="D68" s="32"/>
-      <c r="E68" s="32"/>
-      <c r="F68" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="G68" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="H68" s="35" t="s">
-        <v>20</v>
+        <v>158</v>
+      </c>
+      <c r="C68" s="21" t="s">
+        <v>159</v>
+      </c>
+      <c r="D68" s="21" t="s">
+        <v>160</v>
+      </c>
+      <c r="E68" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="F68" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="G68" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="H68" s="18" t="s">
+        <v>12</v>
       </c>
       <c r="I68" s="24" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.2">
@@ -3255,22 +3330,28 @@
         <v>65</v>
       </c>
       <c r="B69" s="23" t="s">
-        <v>144</v>
-      </c>
-      <c r="C69" s="32"/>
-      <c r="D69" s="32"/>
-      <c r="E69" s="32"/>
-      <c r="F69" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="G69" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="H69" s="35" t="s">
-        <v>20</v>
+        <v>161</v>
+      </c>
+      <c r="C69" s="21" t="s">
+        <v>162</v>
+      </c>
+      <c r="D69" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="E69" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="F69" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="G69" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="H69" s="18" t="s">
+        <v>12</v>
       </c>
       <c r="I69" s="24" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.2">
@@ -3278,22 +3359,28 @@
         <v>66</v>
       </c>
       <c r="B70" s="23" t="s">
-        <v>145</v>
-      </c>
-      <c r="C70" s="32"/>
-      <c r="D70" s="32"/>
-      <c r="E70" s="32"/>
-      <c r="F70" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="G70" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="H70" s="35" t="s">
-        <v>20</v>
+        <v>163</v>
+      </c>
+      <c r="C70" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="D70" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="E70" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="F70" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="G70" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="H70" s="18" t="s">
+        <v>12</v>
       </c>
       <c r="I70" s="24" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.2">
@@ -3301,22 +3388,28 @@
         <v>67</v>
       </c>
       <c r="B71" s="23" t="s">
+        <v>165</v>
+      </c>
+      <c r="C71" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="D71" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="E71" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="F71" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="G71" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="H71" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="I71" s="24" t="s">
         <v>146</v>
-      </c>
-      <c r="C71" s="32"/>
-      <c r="D71" s="32"/>
-      <c r="E71" s="32"/>
-      <c r="F71" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="G71" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="H71" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="I71" s="24" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.2">
@@ -3324,22 +3417,28 @@
         <v>68</v>
       </c>
       <c r="B72" s="23" t="s">
-        <v>147</v>
-      </c>
-      <c r="C72" s="32"/>
-      <c r="D72" s="32"/>
-      <c r="E72" s="32"/>
-      <c r="F72" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="G72" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="H72" s="35" t="s">
+        <v>167</v>
+      </c>
+      <c r="C72" s="21" t="s">
+        <v>168</v>
+      </c>
+      <c r="D72" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="E72" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="F72" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="G72" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="H72" s="18" t="s">
         <v>20</v>
       </c>
       <c r="I72" s="24" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.2">
@@ -3347,22 +3446,28 @@
         <v>69</v>
       </c>
       <c r="B73" s="23" t="s">
-        <v>148</v>
-      </c>
-      <c r="C73" s="32"/>
-      <c r="D73" s="32"/>
-      <c r="E73" s="32"/>
-      <c r="F73" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="G73" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="H73" s="35" t="s">
+        <v>169</v>
+      </c>
+      <c r="C73" s="21" t="s">
+        <v>170</v>
+      </c>
+      <c r="D73" s="21" t="s">
+        <v>171</v>
+      </c>
+      <c r="E73" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="F73" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="G73" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="H73" s="18" t="s">
         <v>20</v>
       </c>
       <c r="I73" s="24" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.2">
@@ -3370,64 +3475,58 @@
         <v>70</v>
       </c>
       <c r="B74" s="23" t="s">
-        <v>150</v>
-      </c>
-      <c r="C74" s="32"/>
-      <c r="D74" s="32"/>
-      <c r="E74" s="32"/>
-      <c r="F74" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="G74" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="H74" s="35" t="s">
+        <v>172</v>
+      </c>
+      <c r="C74" s="21" t="s">
+        <v>173</v>
+      </c>
+      <c r="D74" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="E74" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="F74" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="G74" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="H74" s="18" t="s">
         <v>20</v>
       </c>
       <c r="I74" s="24" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A75">
-        <v>71</v>
-      </c>
-      <c r="B75" s="23" t="s">
-        <v>151</v>
-      </c>
-      <c r="C75" s="32"/>
-      <c r="D75" s="32"/>
-      <c r="E75" s="32"/>
-      <c r="F75" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="G75" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="H75" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="I75" s="24" t="s">
-        <v>29</v>
-      </c>
+      <c r="B75" s="36"/>
+      <c r="C75" s="37"/>
+      <c r="D75" s="37"/>
+      <c r="E75" s="37"/>
+      <c r="F75" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="G75" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="H75" s="38"/>
+      <c r="I75" s="39"/>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A76">
-        <v>72</v>
-      </c>
       <c r="B76" s="23" t="s">
-        <v>152</v>
-      </c>
-      <c r="C76" s="32"/>
-      <c r="D76" s="32"/>
-      <c r="E76" s="32"/>
-      <c r="F76" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="G76" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="H76" s="35" t="s">
+        <v>142</v>
+      </c>
+      <c r="C76" s="28"/>
+      <c r="D76" s="28"/>
+      <c r="E76" s="28"/>
+      <c r="F76" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="G76" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="H76" s="31" t="s">
         <v>20</v>
       </c>
       <c r="I76" s="24" t="s">
@@ -3435,50 +3534,238 @@
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A77">
-        <v>73</v>
-      </c>
       <c r="B77" s="23" t="s">
-        <v>153</v>
-      </c>
-      <c r="C77" s="32"/>
-      <c r="D77" s="32"/>
-      <c r="E77" s="32"/>
-      <c r="F77" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="G77" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="H77" s="35" t="s">
+        <v>143</v>
+      </c>
+      <c r="C77" s="28"/>
+      <c r="D77" s="28"/>
+      <c r="E77" s="28"/>
+      <c r="F77" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="G77" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="H77" s="31" t="s">
         <v>20</v>
       </c>
       <c r="I77" s="24" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="78" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A78">
-        <v>74</v>
-      </c>
-      <c r="B78" s="38" t="s">
-        <v>154</v>
-      </c>
-      <c r="C78" s="25"/>
-      <c r="D78" s="25"/>
-      <c r="E78" s="25"/>
-      <c r="F78" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="G78" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="H78" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="I78" s="39" t="s">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B78" s="23" t="s">
+        <v>144</v>
+      </c>
+      <c r="C78" s="28"/>
+      <c r="D78" s="28"/>
+      <c r="E78" s="28"/>
+      <c r="F78" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="G78" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="H78" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="I78" s="24" t="s">
         <v>29</v>
       </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B79" s="23" t="s">
+        <v>175</v>
+      </c>
+      <c r="C79" s="28"/>
+      <c r="D79" s="28"/>
+      <c r="E79" s="28"/>
+      <c r="F79" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="G79" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="H79" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="I79" s="24" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B80" s="23" t="s">
+        <v>145</v>
+      </c>
+      <c r="C80" s="28"/>
+      <c r="D80" s="28"/>
+      <c r="E80" s="28"/>
+      <c r="F80" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="G80" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="H80" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="I80" s="24" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="81" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B81" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="C81" s="28"/>
+      <c r="D81" s="28"/>
+      <c r="E81" s="28"/>
+      <c r="F81" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="G81" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="H81" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="I81" s="24" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="82" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B82" s="23" t="s">
+        <v>148</v>
+      </c>
+      <c r="C82" s="28"/>
+      <c r="D82" s="28"/>
+      <c r="E82" s="28"/>
+      <c r="F82" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="G82" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="H82" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="I82" s="24" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="83" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B83" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="C83" s="28"/>
+      <c r="D83" s="28"/>
+      <c r="E83" s="28"/>
+      <c r="F83" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="G83" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="H83" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="I83" s="24" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="84" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B84" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="C84" s="28"/>
+      <c r="D84" s="28"/>
+      <c r="E84" s="28"/>
+      <c r="F84" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="G84" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="H84" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="I84" s="24" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="85" spans="2:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B85" s="32" t="s">
+        <v>150</v>
+      </c>
+      <c r="C85" s="25"/>
+      <c r="D85" s="25"/>
+      <c r="E85" s="25"/>
+      <c r="F85" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="G85" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="H85" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="I85" s="33" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="88" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B88" s="40"/>
+      <c r="C88" s="40"/>
+      <c r="D88" s="40"/>
+      <c r="E88" s="40"/>
+    </row>
+    <row r="89" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B89" s="40"/>
+      <c r="C89" s="40"/>
+      <c r="D89" s="40"/>
+      <c r="E89" s="40"/>
+    </row>
+    <row r="90" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B90" s="40"/>
+      <c r="C90" s="40"/>
+      <c r="D90" s="40"/>
+      <c r="E90" s="40"/>
+    </row>
+    <row r="91" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B91" s="40"/>
+      <c r="C91" s="40"/>
+      <c r="D91" s="40"/>
+      <c r="E91" s="40"/>
+    </row>
+    <row r="92" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B92" s="40"/>
+      <c r="C92" s="40"/>
+      <c r="D92" s="40"/>
+      <c r="E92" s="40"/>
+    </row>
+    <row r="93" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B93" s="40"/>
+      <c r="C93" s="40"/>
+      <c r="D93" s="40"/>
+      <c r="E93" s="40"/>
+    </row>
+    <row r="94" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B94" s="40"/>
+      <c r="C94" s="40"/>
+      <c r="D94" s="40"/>
+      <c r="E94" s="40"/>
+    </row>
+    <row r="95" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B95" s="40"/>
+      <c r="C95" s="40"/>
+      <c r="D95" s="40"/>
+      <c r="E95" s="40"/>
+    </row>
+    <row r="96" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B96" s="40"/>
+      <c r="C96" s="40"/>
+      <c r="D96" s="40"/>
+      <c r="E96" s="40"/>
     </row>
   </sheetData>
   <autoFilter ref="A4:I4" xr:uid="{94915046-756C-0A4A-82BE-41E6AE58C784}"/>
